--- a/01_Data/02_Processed/JS_csv.xlsx
+++ b/01_Data/02_Processed/JS_csv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Library/CloudStorage/GoogleDrive-deeperduke@gmail.com/.shortcut-targets-by-id/1gsetPzqCMaQ4qQzbQ7GR4eMkBkcvb_5f/2023_NSOE_Commuter_Rail/01_Data/02_Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD3E72-DB08-6D4B-9F93-53B337A963BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E990C-7DFF-A44B-A1BB-D1CC3F7123DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{8E00F88A-C4D1-BD44-8D01-8C52DE842813}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{8E00F88A-C4D1-BD44-8D01-8C52DE842813}"/>
   </bookViews>
   <sheets>
     <sheet name="May_2018" sheetId="1" r:id="rId1"/>
@@ -9059,7 +9059,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -39751,7 +39751,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
